--- a/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
+++ b/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\datatools\IC\IC_From_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723307E-B0A9-4B05-9D62-1A5214B43440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7BDC74-7EA1-48D7-8D0D-9D35507EB338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2430" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2775" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults_20130301" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,10 +1190,10 @@
       </c>
       <c r="H5">
         <f>(G5+I5)/2</f>
-        <v>34.735749999999996</v>
+        <v>52</v>
       </c>
       <c r="I5">
-        <v>45.471499999999999</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>90</v>

--- a/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
+++ b/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\datatools\IC\IC_From_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7BDC74-7EA1-48D7-8D0D-9D35507EB338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57ECB7E-C5A0-4648-828D-F4F397DFA136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2775" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5205" yWindow="2190" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults_20130301" sheetId="1" r:id="rId1"/>
@@ -991,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,23 +1189,22 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <f>(G5+I5)/2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>75</v>
+      </c>
+      <c r="L5">
         <v>80</v>
       </c>
-      <c r="J5">
-        <v>90</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
       <c r="M5">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1671,7 +1670,7 @@
         <v>716.66669999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>718.11710000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>60.208300000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>60.208300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>3.8887999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>4.8609999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1936,13 +1935,13 @@
         <v>112.6482</v>
       </c>
       <c r="L22">
-        <v>112.6482</v>
+        <v>333</v>
       </c>
       <c r="M22">
-        <v>112.6482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>271.42860000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2026,6 +2025,10 @@
       </c>
       <c r="M24">
         <v>7.5805999999999996</v>
+      </c>
+      <c r="P24">
+        <f>80 * (50/12)</f>
+        <v>333.33333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
+++ b/scripts/datatools/IC/IC_From_DATA/Defaults_20191101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\datatools\IC\IC_From_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57ECB7E-C5A0-4648-828D-F4F397DFA136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C4F3F-F66A-45CE-89D6-9770CFCC1579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="2190" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="1500" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults_20130301" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,10 +1189,10 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>60</v>
